--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bot.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bot.xlsx
@@ -1336,7 +1336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
@@ -2461,7 +2461,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -2763,7 +2763,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3065,7 +3065,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
@@ -4779,7 +4779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
@@ -6214,7 +6214,7 @@
         <v>0.000199218864</v>
       </c>
       <c r="D103">
-        <v>-0.00043900216</v>
+        <v>0.00016678248</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6312,7 +6312,7 @@
         <v>0.000196201472</v>
       </c>
       <c r="D110">
-        <v>-0.00043651064</v>
+        <v>0.00016583592</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6410,7 +6410,7 @@
         <v>0.00019318408</v>
       </c>
       <c r="D117">
-        <v>-0.00043401912</v>
+        <v>0.00016488936</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6508,7 +6508,7 @@
         <v>0.000186597136</v>
       </c>
       <c r="D124">
-        <v>-0.000420497128</v>
+        <v>0.000159752184</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6606,7 +6606,7 @@
         <v>0.000180010192</v>
       </c>
       <c r="D131">
-        <v>-0.000406975136</v>
+        <v>0.000154615008</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>0.000173423248</v>
       </c>
       <c r="D138">
-        <v>-0.000393453144</v>
+        <v>0.000149477832</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6802,7 +6802,7 @@
         <v>0.000166836304</v>
       </c>
       <c r="D145">
-        <v>-0.000379931152</v>
+        <v>0.000144340656</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6900,7 +6900,7 @@
         <v>0.00016024936</v>
       </c>
       <c r="D152">
-        <v>-0.00036640916</v>
+        <v>0.00013920348</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6998,7 +6998,7 @@
         <v>0.000152438848</v>
       </c>
       <c r="D159">
-        <v>-0.000347812528</v>
+        <v>0.000132138384</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>0.000144628336</v>
       </c>
       <c r="D166">
-        <v>-0.000329215896</v>
+        <v>0.000125073288</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7194,7 +7194,7 @@
         <v>0.000240610656</v>
       </c>
       <c r="D173">
-        <v>-0.000675495168</v>
+        <v>0.000261788288</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7292,7 +7292,7 @@
         <v>0.000226874928</v>
       </c>
       <c r="D180">
-        <v>-0.000635053584</v>
+        <v>0.000246115144</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7390,7 +7390,7 @@
         <v>0.0002131392</v>
       </c>
       <c r="D187">
-        <v>-0.000594612</v>
+        <v>0.000230442</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>0.000201153792</v>
       </c>
       <c r="D194">
-        <v>-0.00056095716</v>
+        <v>0.00021739906</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7586,7 +7586,7 @@
         <v>0.000189168384</v>
       </c>
       <c r="D201">
-        <v>-0.00052730232</v>
+        <v>0.00020435612</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7684,7 +7684,7 @@
         <v>0.000177182976</v>
       </c>
       <c r="D208">
-        <v>-0.00049364748</v>
+        <v>0.00019131318</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7782,7 +7782,7 @@
         <v>0.000165197568</v>
       </c>
       <c r="D215">
-        <v>-0.00045999264</v>
+        <v>0.00017827024</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7880,7 +7880,7 @@
         <v>0.00015321216</v>
       </c>
       <c r="D222">
-        <v>-0.0004263378</v>
+        <v>0.0001652273</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7978,7 +7978,7 @@
         <v>0.000145617648</v>
       </c>
       <c r="D229">
-        <v>-0.000416728392</v>
+        <v>0.000161503172</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>0.000138023136</v>
       </c>
       <c r="D236">
-        <v>-0.000407118984</v>
+        <v>0.000157779044</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>0.000370187124</v>
       </c>
       <c r="D243">
-        <v>-0.000381545336</v>
+        <v>0.000716794376</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8272,7 +8272,7 @@
         <v>0.000348632112</v>
       </c>
       <c r="D250">
-        <v>-0.000372321848</v>
+        <v>0.000699466568</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8370,7 +8370,7 @@
         <v>0.0003270771</v>
       </c>
       <c r="D257">
-        <v>-0.00036309836</v>
+        <v>0.00068213876</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>0.000316437396</v>
       </c>
       <c r="D264">
-        <v>-0.000358228496</v>
+        <v>0.000672989936</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>0.000305797692</v>
       </c>
       <c r="D271">
-        <v>-0.000353358632</v>
+        <v>0.000663841112</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8664,7 +8664,7 @@
         <v>0.000295157988</v>
       </c>
       <c r="D278">
-        <v>-0.000348488768</v>
+        <v>0.000654692288</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8762,7 +8762,7 @@
         <v>0.000284518284</v>
       </c>
       <c r="D285">
-        <v>-0.000343618904</v>
+        <v>0.000645543464</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>0.00027387858</v>
       </c>
       <c r="D292">
-        <v>-0.00033874904</v>
+        <v>0.00063639464</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>0.000262104036</v>
       </c>
       <c r="D299">
-        <v>-0.00032185652</v>
+        <v>0.00060465932</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9056,7 +9056,7 @@
         <v>0.000250329492</v>
       </c>
       <c r="D306">
-        <v>-0.000304964</v>
+        <v>0.000572924</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9154,7 +9154,7 @@
         <v>0.000238554948</v>
       </c>
       <c r="D313">
-        <v>-0.00028807148</v>
+        <v>0.00054118868</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9242,7 +9242,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9258,7 +9258,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bot.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_bot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="123">
   <si>
     <t>male</t>
   </si>
@@ -9236,14 +9236,210 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.027095304550216</v>
+      </c>
+      <c r="C2">
+        <v>0.02600645374266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.0269967348904</v>
+      </c>
+      <c r="C3">
+        <v>0.025924883055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.02657923282358</v>
+      </c>
+      <c r="C4">
+        <v>0.02552244412122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.02616173075676</v>
+      </c>
+      <c r="C5">
+        <v>0.02512000518744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.02574422868994</v>
+      </c>
+      <c r="C6">
+        <v>0.02471756625366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.02532672662312</v>
+      </c>
+      <c r="C7">
+        <v>0.02431512731988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.0249092245563</v>
+      </c>
+      <c r="C8">
+        <v>0.0239126883861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.01998235557356</v>
+      </c>
+      <c r="C9">
+        <v>0.020238378757836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.01963774221982</v>
+      </c>
+      <c r="C10">
+        <v>0.019885039038852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.01929312886608</v>
+      </c>
+      <c r="C11">
+        <v>0.019531699319868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.01189897721506</v>
+      </c>
+      <c r="C12">
+        <v>0.0151726030368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.0116825725874</v>
+      </c>
+      <c r="C13">
+        <v>0.01489306488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.00453967276</v>
+      </c>
+      <c r="C14">
+        <v>0.00697572612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.00444810352</v>
+      </c>
+      <c r="C15">
+        <v>0.00684189924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.00435653428</v>
+      </c>
+      <c r="C16">
+        <v>0.00670807236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.00426496504</v>
+      </c>
+      <c r="C17">
+        <v>0.00657424548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.0041733958</v>
+      </c>
+      <c r="C18">
+        <v>0.0064404186</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
